--- a/scheduler/data/PolishingOrders.xlsx
+++ b/scheduler/data/PolishingOrders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Folha1!$D$1:$D$324</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -408,7 +408,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -443,7 +443,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -620,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -631,7 +631,7 @@
   <dimension ref="A1:K324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>3000</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6">
         <v>66</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <v>43246.333333333336</v>
+        <v>43307.333333333336</v>
       </c>
       <c r="K2" s="8">
-        <v>43252.382638888892</v>
+        <v>43344.382638888892</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>18000</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6">
         <v>66</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <v>43251.335416666669</v>
+        <v>43312.335416666669</v>
       </c>
       <c r="K3" s="8">
-        <v>43252.383333333331</v>
+        <v>43344.383333333331</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>30000</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6">
         <v>66</v>
@@ -780,10 +780,10 @@
         <v>0.1277777777777778</v>
       </c>
       <c r="J4" s="8">
-        <v>43252.383333333331</v>
+        <v>43313.383333333331</v>
       </c>
       <c r="K4" s="8">
-        <v>43252.573611111111</v>
+        <v>43344.573611111111</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>7200</v>
+        <v>35</v>
       </c>
       <c r="G5" s="6">
         <v>66</v>
@@ -812,10 +812,10 @@
         <v>0.35833333333333334</v>
       </c>
       <c r="J5" s="8">
-        <v>43256.350694444445</v>
+        <v>43317.350694444445</v>
       </c>
       <c r="K5" s="8">
-        <v>43257.256944444445</v>
+        <v>43349.256944444445</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6">
         <v>66</v>
@@ -845,10 +845,10 @@
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="8">
-        <v>43257.364583333336</v>
+        <v>43318.364583333336</v>
       </c>
       <c r="K6" s="8">
-        <v>43257.619444444441</v>
+        <v>43349.619444444441</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6">
         <v>66</v>
@@ -880,10 +880,10 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="J7" s="8">
-        <v>43258.25</v>
+        <v>43319.25</v>
       </c>
       <c r="K7" s="8">
-        <v>43258.333333333336</v>
+        <v>43350.333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6">
         <v>66</v>
@@ -912,10 +912,10 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>43258.340277777781</v>
+        <v>43319.340277777781</v>
       </c>
       <c r="K8" s="8">
-        <v>43258.387499999997</v>
+        <v>43350.387499999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6">
         <v>66</v>
@@ -944,10 +944,10 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="J9" s="8">
-        <v>43258.387499999997</v>
+        <v>43319.387499999997</v>
       </c>
       <c r="K9" s="8">
-        <v>43258.40902777778</v>
+        <v>43350.40902777778</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6">
         <v>66</v>
@@ -976,10 +976,10 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="J10" s="8">
-        <v>43258.429166666669</v>
+        <v>43319.429166666669</v>
       </c>
       <c r="K10" s="8">
-        <v>43258.436111111114</v>
+        <v>43350.436111111114</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6">
         <v>66</v>
@@ -1008,10 +1008,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J11" s="8">
-        <v>43258.436111111114</v>
+        <v>43319.436111111114</v>
       </c>
       <c r="K11" s="8">
-        <v>43258.457638888889</v>
+        <v>43350.457638888889</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="G12" s="6">
         <v>66</v>
@@ -1044,10 +1044,10 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="J12" s="8">
-        <v>43258.5</v>
+        <v>43319.5</v>
       </c>
       <c r="K12" s="8">
-        <v>43258.541666666664</v>
+        <v>43350.541666666664</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="4">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="G13" s="6">
         <v>66</v>
@@ -1079,10 +1079,10 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="J13" s="8">
-        <v>43258.5</v>
+        <v>43319.5</v>
       </c>
       <c r="K13" s="8">
-        <v>43258.541666666664</v>
+        <v>43350.541666666664</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6">
         <v>66</v>
@@ -1114,10 +1114,10 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="J14" s="8">
-        <v>43258.541666666664</v>
+        <v>43319.541666666664</v>
       </c>
       <c r="K14" s="8">
-        <v>43258.587500000001</v>
+        <v>43350.587500000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6">
         <v>66</v>
@@ -1146,10 +1146,10 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="J15" s="8">
-        <v>43258.583333333336</v>
+        <v>43319.583333333336</v>
       </c>
       <c r="K15" s="8">
-        <v>43258.613888888889</v>
+        <v>43350.613888888889</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>30000</v>
+        <v>35</v>
       </c>
       <c r="G16" s="6">
         <v>66</v>
@@ -1178,10 +1178,10 @@
         <v>0.34722222222222227</v>
       </c>
       <c r="J16" s="8">
-        <v>43258.613888888889</v>
+        <v>43319.613888888889</v>
       </c>
       <c r="K16" s="8">
-        <v>43259.585416666669</v>
+        <v>43351.585416666669</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>9000</v>
+        <v>35</v>
       </c>
       <c r="G17" s="6">
         <v>66</v>
@@ -1213,10 +1213,10 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="J17" s="8">
-        <v>43260.286805555559</v>
+        <v>43321.286805555559</v>
       </c>
       <c r="K17" s="8">
-        <v>43260.314583333333</v>
+        <v>43352.314583333333</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>20000</v>
+        <v>35</v>
       </c>
       <c r="G18" s="6">
         <v>66</v>
@@ -1245,10 +1245,10 @@
         <v>0.54652777777777783</v>
       </c>
       <c r="J18" s="8">
-        <v>43260.34097222222</v>
+        <v>43321.34097222222</v>
       </c>
       <c r="K18" s="8">
-        <v>43263.572916666664</v>
+        <v>43355.572916666664</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <v>1200</v>
+        <v>35</v>
       </c>
       <c r="G19" s="6">
         <v>66</v>
@@ -1277,10 +1277,10 @@
         <v>0.12013888888888889</v>
       </c>
       <c r="J19" s="8">
-        <v>43263.573611111111</v>
+        <v>43324.573611111111</v>
       </c>
       <c r="K19" s="8">
-        <v>43263.693749999999</v>
+        <v>43355.693749999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G20" s="6">
         <v>66</v>
@@ -1309,10 +1309,10 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="J20" s="8">
-        <v>43263.693055555559</v>
+        <v>43324.693055555559</v>
       </c>
       <c r="K20" s="8">
-        <v>43263.779166666667</v>
+        <v>43355.779166666667</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6">
         <v>66</v>
@@ -1341,10 +1341,10 @@
         <v>0.1673611111111111</v>
       </c>
       <c r="J21" s="8">
-        <v>43264.491666666669</v>
+        <v>43325.491666666669</v>
       </c>
       <c r="K21" s="8">
-        <v>43264.720833333333</v>
+        <v>43356.720833333333</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G22" s="6">
         <v>66</v>
@@ -1376,10 +1376,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J22" s="8">
-        <v>43265.25</v>
+        <v>43326.25</v>
       </c>
       <c r="K22" s="8">
-        <v>43265.333333333336</v>
+        <v>43357.333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <v>6000</v>
+        <v>35</v>
       </c>
       <c r="G23" s="6">
         <v>66</v>
@@ -1411,10 +1411,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J23" s="8">
-        <v>43265.5</v>
+        <v>43326.5</v>
       </c>
       <c r="K23" s="8">
-        <v>43265.541666666664</v>
+        <v>43357.541666666664</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="4">
-        <v>3600</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6">
         <v>66</v>
@@ -1443,10 +1443,10 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J24" s="8">
-        <v>43265.715277777781</v>
+        <v>43326.715277777781</v>
       </c>
       <c r="K24" s="8">
-        <v>43265.779166666667</v>
+        <v>43357.779166666667</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="4">
-        <v>3000</v>
+        <v>35</v>
       </c>
       <c r="G25" s="6">
         <v>66</v>
@@ -1475,10 +1475,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J25" s="8">
-        <v>43267.5</v>
+        <v>43328.5</v>
       </c>
       <c r="K25" s="8">
-        <v>43267.541666666664</v>
+        <v>43359.541666666664</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="4">
-        <v>12000</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6">
         <v>66</v>
@@ -1507,10 +1507,10 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="J26" s="8">
-        <v>43267.64166666667</v>
+        <v>43328.64166666667</v>
       </c>
       <c r="K26" s="8">
-        <v>43267.770833333336</v>
+        <v>43359.770833333336</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>6000</v>
+        <v>35</v>
       </c>
       <c r="G27" s="6">
         <v>66</v>
@@ -1542,10 +1542,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J27" s="8">
-        <v>43270.25</v>
+        <v>43331.25</v>
       </c>
       <c r="K27" s="8">
-        <v>43270.333333333336</v>
+        <v>43362.333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>6000</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6">
         <v>66</v>
@@ -1574,10 +1574,10 @@
         <v>0.30555555555555552</v>
       </c>
       <c r="J28" s="8">
-        <v>43270.333333333336</v>
+        <v>43331.333333333336</v>
       </c>
       <c r="K28" s="8">
-        <v>43270.6875</v>
+        <v>43362.6875</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">

--- a/scheduler/data/PolishingOrders.xlsx
+++ b/scheduler/data/PolishingOrders.xlsx
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E2" s="5">
         <v>43344.382638888892</v>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E3" s="5">
         <v>43344.383333333331</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E4" s="5">
         <v>43344.573611111111</v>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E5" s="5">
         <v>43349.256944444445</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E6" s="5">
         <v>43349.619444444441</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E7" s="5">
         <v>43350.333333333336</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E8" s="5">
         <v>43350.387499999997</v>
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="5">
         <v>43350.40902777778</v>
@@ -769,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="5">
         <v>43350.436111111114</v>
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E11" s="5">
         <v>43350.457638888889</v>
@@ -803,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="5">
         <v>43350.541666666664</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E13" s="5">
         <v>43350.541666666664</v>
@@ -837,7 +837,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="3">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E14" s="5">
         <v>43350.587500000001</v>
@@ -854,7 +854,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E15" s="5">
         <v>43350.613888888889</v>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="3">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E16" s="5">
         <v>43351.585416666669</v>
@@ -888,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E17" s="5">
         <v>43352.314583333333</v>
@@ -905,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E18" s="5">
         <v>43355.572916666664</v>
@@ -922,7 +922,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E19" s="5">
         <v>43355.693749999999</v>
@@ -939,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E20" s="5">
         <v>43355.779166666667</v>
@@ -956,7 +956,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E21" s="5">
         <v>43356.720833333333</v>
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="5">
         <v>43357.333333333336</v>
@@ -990,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E23" s="5">
         <v>43357.541666666664</v>
@@ -1007,7 +1007,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="3">
-        <v>35</v>
+        <v>35000</v>
       </c>
       <c r="E24" s="5">
         <v>43357.779166666667</v>
@@ -1024,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E25" s="5">
         <v>43359.541666666664</v>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E26" s="5">
         <v>43359.770833333336</v>
@@ -1058,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E27" s="5">
         <v>43362.333333333336</v>
@@ -1075,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="3">
-        <v>35</v>
+        <v>3500</v>
       </c>
       <c r="E28" s="5">
         <v>43362.6875</v>

--- a/scheduler/data/PolishingOrders.xlsx
+++ b/scheduler/data/PolishingOrders.xlsx
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E2" s="5">
         <v>43344.382638888892</v>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E3" s="5">
         <v>43344.383333333331</v>
@@ -667,7 +667,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E4" s="5">
         <v>43344.573611111111</v>
@@ -684,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E5" s="5">
         <v>43349.256944444445</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E6" s="5">
         <v>43349.619444444441</v>
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E7" s="5">
         <v>43350.333333333336</v>
@@ -735,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E8" s="5">
         <v>43350.387499999997</v>
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E9" s="5">
         <v>43350.40902777778</v>
@@ -769,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E10" s="5">
         <v>43350.436111111114</v>
@@ -786,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>35000</v>
+        <v>350</v>
       </c>
       <c r="E11" s="5">
         <v>43350.457638888889</v>
@@ -803,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E12" s="5">
         <v>43350.541666666664</v>
@@ -820,7 +820,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E13" s="5">
         <v>43350.541666666664</v>
@@ -837,7 +837,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="3">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="5">
         <v>43350.587500000001</v>
@@ -871,7 +871,7 @@
         <v>33</v>
       </c>
       <c r="D16" s="3">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="E16" s="5">
         <v>43351.585416666669</v>
@@ -888,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E17" s="5">
         <v>43352.314583333333</v>
@@ -905,7 +905,7 @@
         <v>39</v>
       </c>
       <c r="D18" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E18" s="5">
         <v>43355.572916666664</v>
@@ -922,7 +922,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E19" s="5">
         <v>43355.693749999999</v>
@@ -939,7 +939,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E20" s="5">
         <v>43355.779166666667</v>
@@ -956,7 +956,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3">
-        <v>35000</v>
+        <v>350</v>
       </c>
       <c r="E21" s="5">
         <v>43356.720833333333</v>
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E22" s="5">
         <v>43357.333333333336</v>
@@ -990,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E23" s="5">
         <v>43357.541666666664</v>
@@ -1007,7 +1007,7 @@
         <v>48</v>
       </c>
       <c r="D24" s="3">
-        <v>35000</v>
+        <v>350</v>
       </c>
       <c r="E24" s="5">
         <v>43357.779166666667</v>
@@ -1024,7 +1024,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E25" s="5">
         <v>43359.541666666664</v>
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E26" s="5">
         <v>43359.770833333336</v>
@@ -1058,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E27" s="5">
         <v>43362.333333333336</v>
@@ -1075,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="3">
-        <v>3500</v>
+        <v>350</v>
       </c>
       <c r="E28" s="5">
         <v>43362.6875</v>
